--- a/dependencies/brucella/melitensis-bv2/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/brucella/melitensis-bv2/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/melitensis-bv2/script_dependents/python/script2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/melitensis-bv2/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBB5E9B-383E-6A46-AF54-FEA3FA0440FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14200" yWindow="460" windowWidth="21600" windowHeight="17460"/>
+    <workbookView xWindow="58020" yWindow="6720" windowWidth="21600" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,13 +39,13 @@
     <t>Bmelitensis2-01</t>
   </si>
   <si>
-    <t>NC_012441-111</t>
+    <t>NC_012441.1-111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1044,7 +1045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" zoomScalePageLayoutView="163" workbookViewId="0">
